--- a/DATA_goal/Junction_Flooding_222.xlsx
+++ b/DATA_goal/Junction_Flooding_222.xlsx
@@ -451,9 +451,9 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41654.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.27</v>
+        <v>5.03</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.59</v>
+        <v>4.16</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>62.6</v>
+        <v>6.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.85</v>
+        <v>2.89</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.65</v>
+        <v>1.86</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>276.5</v>
+        <v>27.65</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.95</v>
+        <v>5.19</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.59</v>
+        <v>3.46</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.98</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.02</v>
+        <v>3.1</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.4</v>
+        <v>5.54</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41654.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.74</v>
-      </c>
       <c r="U3" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41654.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P4" s="4" t="n">
         <v>1.11</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>11.07</v>
-      </c>
       <c r="Q4" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.8</v>
+        <v>11.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41654.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.25</v>
+        <v>4.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.32</v>
+        <v>3.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.58</v>
+        <v>5.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.57</v>
+        <v>2.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>214.71</v>
+        <v>21.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.74</v>
+        <v>4.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.35</v>
+        <v>2.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.78</v>
+        <v>2.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.97</v>
+        <v>1.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.32</v>
+        <v>4.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41654.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>18.15</v>
+        <v>1.82</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.36</v>
+        <v>2.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>93.41</v>
+        <v>9.34</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>18.65</v>
+        <v>1.87</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>26.77</v>
+        <v>2.68</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41654.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41654.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>48.94</v>
+        <v>4.89</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.49</v>
+        <v>4.05</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>62.77</v>
+        <v>6.28</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.68</v>
+        <v>1.97</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.17</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>261.83</v>
+        <v>26.18</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>49.25</v>
+        <v>4.92</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.22</v>
+        <v>3.32</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.36</v>
+        <v>3.14</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>56.58</v>
+        <v>5.66</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.39</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41654.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32.87</v>
+        <v>3.29</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.22</v>
+        <v>4.82</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>173.68</v>
+        <v>17.37</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>33.29</v>
+        <v>3.33</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.2</v>
+        <v>2.32</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>43.85</v>
+        <v>4.39</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41654.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>23.36</v>
+        <v>2.34</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>68.36</v>
+        <v>6.84</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>10.84</v>
+        <v>1.08</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>21.38</v>
+        <v>2.14</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_222.xlsx
+++ b/DATA_goal/Junction_Flooding_222.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41654.34027777778</v>
+        <v>44903.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.38</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.03</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.16</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.88</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.26</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.89</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.86</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.63</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>27.65</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.05</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.54</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41654.34722222222</v>
+        <v>44903.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.21</v>
+        <v>1.43</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="O3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41654.35416666666</v>
+        <v>44903.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.74</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.15</v>
+        <v>4.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.79</v>
+        <v>4.12</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>1.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.83</v>
+        <v>6.62</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>2.74</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.93</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9</v>
+        <v>2.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>1.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>2.61</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.68</v>
+        <v>1.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.28</v>
+        <v>26.71</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.19</v>
+        <v>5.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.69</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.45</v>
+        <v>3.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.79</v>
+        <v>1.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.35</v>
+        <v>3.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.47</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.68</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.9</v>
+        <v>2.16</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.5</v>
+        <v>5.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41654.36111111111</v>
+        <v>44903.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.02</v>
+        <v>0.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.46</v>
+        <v>1.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.5</v>
+        <v>0.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.46</v>
+        <v>0.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.07</v>
+        <v>0.11</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>4.93</v>
-      </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.68</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41654.36805555555</v>
+        <v>44903.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.85</v>
+        <v>18.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.61</v>
+        <v>13.81</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.82</v>
+        <v>39.16</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.5</v>
+        <v>32.57</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.67</v>
+        <v>14.48</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.94</v>
+        <v>51.23</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.02</v>
+        <v>21.79</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.45</v>
+        <v>9.9</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.67</v>
+        <v>15.14</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.73</v>
+        <v>15.72</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.76</v>
+        <v>16.56</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.21</v>
+        <v>4.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.66</v>
+        <v>14.1</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>20.62</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.57</v>
+        <v>11.71</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.53</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>9.34</v>
+        <v>210.55</v>
       </c>
       <c r="U6" s="4" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>1.87</v>
       </c>
-      <c r="V6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>1.37</v>
+        <v>25.44</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.54</v>
+        <v>11.63</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.49</v>
+        <v>10.05</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.57</v>
+        <v>11.88</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.77</v>
+        <v>17.01</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.68</v>
+        <v>45.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.34</v>
+        <v>7.39</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41654.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41654.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41654.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41654.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41654.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>36.04</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>190.77</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>36.29</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.48</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.01</v>
+        <v>16.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_222.xlsx
+++ b/DATA_goal/Junction_Flooding_222.xlsx
@@ -451,12 +451,12 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -655,103 +655,103 @@
         <v>44903.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44903.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.81</v>
+        <v>78.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44903.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.93</v>
+        <v>49.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.12</v>
+        <v>41.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.62</v>
+        <v>66.16</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.29</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.8</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.76</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.71</v>
+        <v>267.11</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.04</v>
+        <v>50.38</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.23</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.32</v>
+        <v>33.17</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.58</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.98</v>
+        <v>59.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="5">
@@ -967,37 +967,37 @@
         <v>44903.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
@@ -1024,46 +1024,46 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_222.xlsx
+++ b/DATA_goal/Junction_Flooding_222.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44903.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,103 +759,103 @@
         <v>44903.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.378</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.51</v>
+        <v>5.509</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.079</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.34</v>
+        <v>14.339</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.15</v>
+        <v>6.151</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.93</v>
+        <v>17.934</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.029</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.82</v>
+        <v>3.822</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.739</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.89</v>
+        <v>5.887</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.95</v>
+        <v>5.954</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.822</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.13</v>
+        <v>5.133</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.4</v>
+        <v>8.395</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.41</v>
+        <v>4.409</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.06</v>
+        <v>78.056</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.57</v>
+        <v>15.571</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>5.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.23</v>
+        <v>5.228</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.74</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.16</v>
+        <v>9.162000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.51</v>
+        <v>4.507</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.45</v>
+        <v>4.446</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.214</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.34</v>
+        <v>15.336</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.67</v>
+        <v>2.672</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.16</v>
+        <v>6.159</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44903.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.8</v>
+        <v>23.798</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.43</v>
+        <v>17.434</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.63</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.28</v>
+        <v>49.278</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>41.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.5</v>
+        <v>18.504</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.16</v>
+        <v>66.16500000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.43</v>
+        <v>27.433</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.51</v>
+        <v>12.513</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.29</v>
+        <v>19.288</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.91</v>
+        <v>19.905</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.8</v>
+        <v>20.801</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.8</v>
+        <v>5.802</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.72</v>
+        <v>17.717</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.12</v>
+        <v>26.118</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>14.76</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>267.11</v>
+        <v>267.108</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.38</v>
+        <v>50.382</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>16.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.23</v>
+        <v>34.233</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.7</v>
+        <v>17.702</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.366</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.17</v>
+        <v>33.172</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.67</v>
+        <v>14.673</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.68</v>
+        <v>12.678</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>14.99</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.58</v>
+        <v>21.583</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.77</v>
+        <v>59.766</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.295999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.6</v>
+        <v>20.597</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44903.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_222.xlsx
+++ b/DATA_goal/Junction_Flooding_222.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,34 +967,34 @@
         <v>44903.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.018</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.07</v>
+        <v>11.067</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.787</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.16</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.123</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
@@ -1024,46 +1024,150 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.61</v>
+        <v>1.609</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.8</v>
+        <v>4.795</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.524</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.62</v>
+        <v>10.625</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44903.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_222.xlsx
+++ b/DATA_goal/Junction_Flooding_222.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,34 +967,34 @@
         <v>44903.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.018</v>
+        <v>1.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.067</v>
+        <v>11.07</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.199</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.16</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.136</v>
+        <v>0.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.123</v>
+        <v>1.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
@@ -1024,150 +1024,46 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.609</v>
+        <v>1.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.795</v>
+        <v>4.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.524</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.625</v>
+        <v>10.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.295</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44903.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="R6" s="4" t="n">
         <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.35</v>
       </c>
     </row>
   </sheetData>
